--- a/国赛训练/2019培训1/pr2_data.xlsx
+++ b/国赛训练/2019培训1/pr2_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C709887-5710-415C-A90A-03C4580D5981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +57,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +341,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>89.58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>82.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>81.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80.760000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>79.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>79.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>78.760000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>67.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>65.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>65.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>65.040000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>63.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>62.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>59.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>58.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>55.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>